--- a/templates/NHWA_Module_5.xlsx
+++ b/templates/NHWA_Module_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC6959-9DE3-4BE9-86EC-A00AF4864181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE5301-62DF-46E3-8203-BAE2D6361621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2318,9 +2318,6 @@
     <t>VNM</t>
   </si>
   <si>
-    <t>Health Workforce Market Flow</t>
-  </si>
-  <si>
     <t>Occupation</t>
   </si>
   <si>
@@ -2371,6 +2368,9 @@
   <si>
     <t>Involuntary exits
 (5-05)</t>
+  </si>
+  <si>
+    <t>Health Labour Market Flows</t>
   </si>
 </sst>
 </file>
@@ -2701,16 +2701,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>285751</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3135,7 +3135,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="2" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -3381,27 +3381,27 @@
         <v>9</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="34" t="s">
         <v>766</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>767</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="32" t="s">
+        <v>767</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>768</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>769</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>770</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>771</v>
       </c>
       <c r="L7" s="35"/>
       <c r="P7" s="15"/>
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3593,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -9960,7 +9960,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DapeaOaQmV08Q89c9ylufnsaTqQE04n8zySTXpBVQg1myu6alxwQLdBkG6ciFID+P9CcdGQN0o2bJD9EYnNQvQ==" saltValue="y4yqi9WT2MNq47wUDqPuPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Kpp9D8N3dRixb7b7QEzQSoUM2mlXsGBv+KC6q3wd9ZscmCXN3bbiXJ8Z8wpUv9590DcJY4FqAmYIgWOdo8u5yg==" saltValue="icvpQfbgAMKqH78nWwWs+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
@@ -9995,16 +9995,16 @@
           <controlPr defaultSize="0" autoLine="0" linkedCell="X1" listFillRange="dropdownlist" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>285750</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -10135,30 +10135,30 @@
         <v>9</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>772</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>773</v>
-      </c>
       <c r="I7" s="34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M7" s="35"/>
       <c r="O7" s="12"/>
@@ -10212,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -10230,7 +10230,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -10316,7 +10316,7 @@
       <c r="M15" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2BPZ6rGYc5zHPtlTvv7qwYEt5eYZy9zHASXcTQ+FBfKnnfy6TEdkWhnb9DWQXyE+SJ7caE++4/HdG404+rsQkA==" saltValue="8BUdj+8BZ1bQDUpduHh9pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hHxdEuT9DEXx3SdR5F4CORvqMQZO7OLyE4JH6WhTkONQ3ZSih+aNAh6GcQpKCGEYpNOBCn5L/F3Px+21XvnHxA==" saltValue="SnRU6e1NcZlyGBTwtvKogA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>

--- a/templates/NHWA_Module_5.xlsx
+++ b/templates/NHWA_Module_5.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE5301-62DF-46E3-8203-BAE2D6361621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904E0DD-6CD6-42F3-AE9C-5289B5A02FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D8NLvK0a2zIADanhZ9TwvH5vsYkmadwkU44pHflONSE2WP8HiyNEmpWYSjEZss1+UZ+xu9L5Oen+ioj0nOts3g==" workbookSaltValue="X5E0+xThdEGqXq8WVwCqrQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2704,13 +2705,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>285751</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
